--- a/initial_candidates.xlsx
+++ b/initial_candidates.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="87">
   <si>
-    <t xml:space="preserve">País </t>
+    <t>Country</t>
   </si>
   <si>
     <t>Top Sites on Google</t>
